--- a/MasterData/7. AmortTemplateAMC.xlsx
+++ b/MasterData/7. AmortTemplateAMC.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>AmortTemplateNo</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>ProjSchedFlag</t>
+  </si>
+  <si>
+    <t>UniqueKey</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -527,6 +532,9 @@
       </c>
       <c r="L1" t="s">
         <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
